--- a/data_table_featureproperties_r.xlsx
+++ b/data_table_featureproperties_r.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Titan\R\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Titan\R\R files for Github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9A6EDB-4594-477A-BF48-F46E64C068A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2368D2C-4C29-4173-A136-690EF14A09A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1139,7 +1139,7 @@
   <dimension ref="A1:AB112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O59" sqref="O59"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3392,6 +3392,12 @@
       <c r="H32">
         <v>157.47</v>
       </c>
+      <c r="I32">
+        <v>32</v>
+      </c>
+      <c r="J32">
+        <v>4.9209375</v>
+      </c>
       <c r="K32">
         <v>1.2175694650636559</v>
       </c>
